--- a/Mifos Automation Excels/Client/4800-SUBMITSA01JAN2015(MINACTPRD-30DAYS&LCKINPRD-15DAYS&CHG'share-purchase-flat')-ACT01JAN2015.xlsx
+++ b/Mifos Automation Excels/Client/4800-SUBMITSA01JAN2015(MINACTPRD-30DAYS&LCKINPRD-15DAYS&CHG'share-purchase-flat')-ACT01JAN2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewSavingInput" sheetId="1" r:id="rId1"/>
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,13 +909,11 @@
       </c>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="6">
-        <v>86</v>
-      </c>
+      <c r="B5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1041,7 +1039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
